--- a/CleanResults/CompareWithOtherAddingMethods/Results.xlsx
+++ b/CleanResults/CompareWithOtherAddingMethods/Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Number of Attacks</t>
   </si>
@@ -51,11 +51,14 @@
   <si>
     <t>Inverse Preferential</t>
   </si>
+  <si>
+    <t>LCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,11 +153,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -163,7 +234,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -172,7 +261,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,79 +575,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="9" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -605,8 +719,32 @@
       <c r="Q3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -635,31 +773,55 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
         <v>0.25515031265031302</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>0.27012506012505999</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>0.26097506814173499</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>0.24462734852128801</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -692,35 +854,59 @@
         <v>0.12063764536036581</v>
       </c>
       <c r="J5">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>91</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <v>96</v>
+      </c>
+      <c r="N5">
         <v>0.19926873687479699</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>0.20201210517877199</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>0.18448224614891301</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>0.20354707974404901</v>
       </c>
-      <c r="N5">
-        <f>1-(J5/J4)</f>
+      <c r="R5">
+        <f>1-(N5/N4)</f>
         <v>0.21901433392363701</v>
       </c>
-      <c r="O5">
-        <f>1-(K5/K4)</f>
+      <c r="S5">
+        <f>1-(O5/O4)</f>
         <v>0.25215340966422628</v>
       </c>
-      <c r="P5">
-        <f>1-(L5/L4)</f>
+      <c r="T5">
+        <f>1-(P5/P4)</f>
         <v>0.29310394489974378</v>
       </c>
-      <c r="Q5">
-        <f>1-(M5/M4)</f>
+      <c r="U5">
+        <f>1-(Q5/Q4)</f>
         <v>0.16792999239683992</v>
       </c>
+      <c r="V5">
+        <v>93</v>
+      </c>
+      <c r="W5">
+        <v>91</v>
+      </c>
+      <c r="X5">
+        <v>92</v>
+      </c>
+      <c r="Y5">
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -753,35 +939,59 @@
         <v>0.19865539688371425</v>
       </c>
       <c r="J6">
+        <v>91</v>
+      </c>
+      <c r="K6">
+        <v>86</v>
+      </c>
+      <c r="L6">
+        <v>84</v>
+      </c>
+      <c r="M6">
+        <v>93</v>
+      </c>
+      <c r="N6">
         <v>0.153803992864599</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>0.13947200218412301</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>0.14414721810176401</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>0.174259040622677</v>
       </c>
-      <c r="N6">
-        <f>1-(J6/J4)</f>
+      <c r="R6">
+        <f>1-(N6/N4)</f>
         <v>0.39720241269941348</v>
       </c>
-      <c r="O6">
-        <f t="shared" ref="O6:P6" si="0">1-(K6/K4)</f>
+      <c r="S6">
+        <f t="shared" ref="S6:T6" si="0">1-(O6/O4)</f>
         <v>0.48367618272976398</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>0.44765904602244244</v>
       </c>
-      <c r="Q6">
-        <f>1-(M6/M4)</f>
+      <c r="U6">
+        <f>1-(Q6/Q4)</f>
         <v>0.28765511429515167</v>
       </c>
+      <c r="V6">
+        <v>84</v>
+      </c>
+      <c r="W6">
+        <v>75</v>
+      </c>
+      <c r="X6">
+        <v>84</v>
+      </c>
+      <c r="Y6">
+        <v>89</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -814,35 +1024,59 @@
         <v>0.33879635087772064</v>
       </c>
       <c r="J7">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>82</v>
+      </c>
+      <c r="M7">
+        <v>87</v>
+      </c>
+      <c r="N7">
         <v>9.9587133042569803E-2</v>
       </c>
-      <c r="K7">
+      <c r="O7">
         <v>0.103426719744902</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>0.108233133869497</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>0.15339924497500301</v>
       </c>
-      <c r="N7">
-        <f>1-(J7/J4)</f>
+      <c r="R7">
+        <f>1-(N7/N4)</f>
         <v>0.60969229467864561</v>
       </c>
-      <c r="O7">
-        <f t="shared" ref="O7:P7" si="1">1-(K7/K4)</f>
+      <c r="S7">
+        <f t="shared" ref="S7:T7" si="1">1-(O7/O4)</f>
         <v>0.61711542166055056</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>0.58527404690353091</v>
       </c>
-      <c r="Q7">
-        <f>1-(M7/M4)</f>
+      <c r="U7">
+        <f>1-(Q7/Q4)</f>
         <v>0.37292683789337688</v>
       </c>
+      <c r="V7">
+        <v>73</v>
+      </c>
+      <c r="W7">
+        <v>66</v>
+      </c>
+      <c r="X7">
+        <v>74</v>
+      </c>
+      <c r="Y7">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -875,35 +1109,59 @@
         <v>0.37864788538517646</v>
       </c>
       <c r="J8">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>84</v>
+      </c>
+      <c r="N8">
         <v>8.2350347607172802E-2</v>
       </c>
-      <c r="K8">
+      <c r="O8">
         <v>9.1685972837488E-2</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>8.5582173743560502E-2</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>0.125662782223388</v>
       </c>
-      <c r="N8">
-        <f>1-(J8/J4)</f>
+      <c r="R8">
+        <f>1-(N8/N4)</f>
         <v>0.67724771037206177</v>
       </c>
-      <c r="O8">
-        <f t="shared" ref="O8:P8" si="2">1-(K8/K4)</f>
+      <c r="S8">
+        <f t="shared" ref="S8:T8" si="2">1-(O8/O4)</f>
         <v>0.66057953751110654</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>0.67206762564353073</v>
       </c>
-      <c r="Q8">
-        <f t="shared" ref="Q8" si="3">1-(M8/M4)</f>
+      <c r="U8">
+        <f t="shared" ref="U8" si="3">1-(Q8/Q4)</f>
         <v>0.48630934773651213</v>
       </c>
+      <c r="V8">
+        <v>64</v>
+      </c>
+      <c r="W8">
+        <v>63</v>
+      </c>
+      <c r="X8">
+        <v>70</v>
+      </c>
+      <c r="Y8">
+        <v>75</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -936,35 +1194,59 @@
         <v>0.37864788538517646</v>
       </c>
       <c r="J9">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>53</v>
+      </c>
+      <c r="L9">
+        <v>62</v>
+      </c>
+      <c r="M9">
+        <v>84</v>
+      </c>
+      <c r="N9">
         <v>6.0263770526693898E-2</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>7.7012993740266503E-2</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>7.3322052228938395E-2</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>0.113622859183465</v>
       </c>
-      <c r="N9">
-        <f>1-(J9/J4)</f>
+      <c r="R9">
+        <f>1-(N9/N4)</f>
         <v>0.76381071259243871</v>
       </c>
-      <c r="O9">
-        <f t="shared" ref="O9:P9" si="4">1-(K9/K4)</f>
+      <c r="S9">
+        <f t="shared" ref="S9:T9" si="4">1-(O9/O4)</f>
         <v>0.71489874466067027</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <f t="shared" si="4"/>
         <v>0.71904575884958732</v>
       </c>
-      <c r="Q9">
-        <f>1-(M9/M4)</f>
+      <c r="U9">
+        <f>1-(Q9/Q4)</f>
         <v>0.53552675172957087</v>
       </c>
+      <c r="V9">
+        <v>47</v>
+      </c>
+      <c r="W9">
+        <v>58</v>
+      </c>
+      <c r="X9">
+        <v>62</v>
+      </c>
+      <c r="Y9">
+        <v>71</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -997,35 +1279,59 @@
         <v>0.45144008958632986</v>
       </c>
       <c r="J10">
+        <v>58</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>77</v>
+      </c>
+      <c r="N10">
         <v>4.8267771510195803E-2</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>5.4785538815841799E-2</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>6.65832852435254E-2</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>0.10493311906948299</v>
       </c>
-      <c r="N10">
-        <f>1-(J10/J4)</f>
+      <c r="R10">
+        <f>1-(N10/N4)</f>
         <v>0.81082613221663014</v>
       </c>
-      <c r="O10">
-        <f t="shared" ref="O10:P10" si="5">1-(K10/K4)</f>
+      <c r="S10">
+        <f t="shared" ref="S10:T10" si="5">1-(O10/O4)</f>
         <v>0.79718453818954194</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <f t="shared" si="5"/>
         <v>0.74486725602706172</v>
       </c>
-      <c r="Q10">
-        <f>1-(M10/M4)</f>
+      <c r="U10">
+        <f>1-(Q10/Q4)</f>
         <v>0.57104910917042662</v>
       </c>
+      <c r="V10">
+        <v>36</v>
+      </c>
+      <c r="W10">
+        <v>45</v>
+      </c>
+      <c r="X10">
+        <v>59</v>
+      </c>
+      <c r="Y10">
+        <v>68</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1058,35 +1364,59 @@
         <v>0.46750834617000636</v>
       </c>
       <c r="J11">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <v>76</v>
+      </c>
+      <c r="N11">
         <v>4.5513081755506002E-2</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>3.7074885271854999E-2</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>6.1515043285096799E-2</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>9.9119608786275404E-2</v>
       </c>
-      <c r="N11">
-        <f>1-(J11/J4)</f>
+      <c r="R11">
+        <f>1-(N11/N4)</f>
         <v>0.82162247311104686</v>
       </c>
-      <c r="O11">
-        <f t="shared" ref="O11:P11" si="6">1-(K11/K4)</f>
+      <c r="S11">
+        <f t="shared" ref="S11:T11" si="6">1-(O11/O4)</f>
         <v>0.86274918271303513</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <f t="shared" si="6"/>
         <v>0.76428766271386461</v>
       </c>
-      <c r="Q11">
-        <f>1-(M11/M4)</f>
+      <c r="U11">
+        <f>1-(Q11/Q4)</f>
         <v>0.59481386940001191</v>
       </c>
+      <c r="V11">
+        <v>36</v>
+      </c>
+      <c r="W11">
+        <v>29</v>
+      </c>
+      <c r="X11">
+        <v>56</v>
+      </c>
+      <c r="Y11">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1119,35 +1449,59 @@
         <v>0.51120720285366072</v>
       </c>
       <c r="J12">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+      <c r="N12">
         <v>3.3111832611832599E-2</v>
       </c>
-      <c r="K12">
+      <c r="O12">
         <v>2.6559563892897198E-2</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>3.6885585234070102E-2</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>9.0429212762546105E-2</v>
       </c>
-      <c r="N12">
-        <f>1-(J12/J4)</f>
+      <c r="R12">
+        <f>1-(N12/N4)</f>
         <v>0.87022617269055513</v>
       </c>
-      <c r="O12">
-        <f t="shared" ref="O12:P12" si="7">1-(K12/K4)</f>
+      <c r="S12">
+        <f t="shared" ref="S12:T12" si="7">1-(O12/O4)</f>
         <v>0.90167678674240404</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <f t="shared" si="7"/>
         <v>0.85866241746112837</v>
       </c>
-      <c r="Q12">
-        <f>1-(M12/M4)</f>
+      <c r="U12">
+        <f>1-(Q12/Q4)</f>
         <v>0.63033890810177851</v>
       </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>28</v>
+      </c>
+      <c r="Y12">
+        <v>62</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1180,35 +1534,59 @@
         <v>0.51201662208747567</v>
       </c>
       <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+      <c r="N13">
         <v>2.91810966810967E-2</v>
       </c>
-      <c r="K13">
+      <c r="O13">
         <v>2.5414782748116101E-2</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>3.3836282684767502E-2</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>8.9419111752445102E-2</v>
       </c>
-      <c r="N13">
-        <f>1-(J13/J4)</f>
+      <c r="R13">
+        <f>1-(N13/N4)</f>
         <v>0.88563174241103204</v>
       </c>
-      <c r="O13">
-        <f t="shared" ref="O13:P13" si="8">1-(K13/K4)</f>
+      <c r="S13">
+        <f t="shared" ref="S13:T13" si="8">1-(O13/O4)</f>
         <v>0.90591475394267451</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <f t="shared" si="8"/>
         <v>0.87034668512322755</v>
       </c>
-      <c r="Q13">
-        <f>1-(M13/M4)</f>
+      <c r="U13">
+        <f>1-(Q13/Q4)</f>
         <v>0.63446804990136396</v>
       </c>
+      <c r="V13">
+        <v>17</v>
+      </c>
+      <c r="W13">
+        <v>17</v>
+      </c>
+      <c r="X13">
+        <v>28</v>
+      </c>
+      <c r="Y13">
+        <v>62</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1241,42 +1619,68 @@
         <v>0.51201662208747567</v>
       </c>
       <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>73</v>
+      </c>
+      <c r="N14">
         <v>2.5657527657527698E-2</v>
       </c>
-      <c r="K14">
+      <c r="O14">
         <v>2.3024210357543699E-2</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>2.7931056597723301E-2</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>8.8510020843354201E-2</v>
       </c>
-      <c r="N14">
-        <f>1-(J14/J4)</f>
+      <c r="R14">
+        <f>1-(N14/N4)</f>
         <v>0.89944151982015519</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:P14" si="9">1-(K14/K4)</f>
+      <c r="S14">
+        <f t="shared" ref="S14:T14" si="9">1-(O14/O4)</f>
         <v>0.91476462662559277</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <f t="shared" si="9"/>
         <v>0.89297423391205322</v>
       </c>
-      <c r="Q14">
-        <f>1-(M14/M4)</f>
+      <c r="U14">
+        <f>1-(Q14/Q4)</f>
         <v>0.63818427752099083</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>17</v>
+      </c>
+      <c r="X14">
+        <v>17</v>
+      </c>
+      <c r="Y14">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
+  <mergeCells count="8">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1288,7 +1692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
